--- a/data_processed/20250820/BTCUSDQMOMENT_20250820.xlsx
+++ b/data_processed/20250820/BTCUSDQMOMENT_20250820.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>15.41220765585451</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.08634205848777793</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1244354596818399</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.5778595736595014</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.300016341032164</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -864,10 +872,18 @@
       <c r="H12" t="n">
         <v>10.18921170995572</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0.1451106724099447</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.03860845840830766</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.719497518369239</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.141425594417664</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -898,10 +914,18 @@
       <c r="H13" t="n">
         <v>18.16724463237356</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0.03812022684306444</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.08940849255325421</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.7000752725432544</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.086799292840594</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -932,10 +956,18 @@
       <c r="H14" t="n">
         <v>242.422597993331</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0.003963586090688369</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.08363590740485342</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.3880079538026978</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.843662676263534</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1002,10 +1034,18 @@
       <c r="H16" t="n">
         <v>25.38527621026315</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>-0.000265022413729249</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0733065868884322</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.3671219725154395</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.075485821741652</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1078,10 +1118,18 @@
       <c r="H18" t="n">
         <v>10.5806243296481</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>-0.2782813428863373</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1409092920061238</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1129486708220114</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.875111306265327</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250820/BTCUSDQMOMENT_20250820.xlsx
+++ b/data_processed/20250820/BTCUSDQMOMENT_20250820.xlsx
@@ -1160,10 +1160,18 @@
       <c r="H19" t="n">
         <v>8.243353072496781</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>-0.2080064881564166</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1304043896348948</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.09342636787466206</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.993387849628447</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250820/BTCUSDQMOMENT_20250820.xlsx
+++ b/data_processed/20250820/BTCUSDQMOMENT_20250820.xlsx
@@ -552,19 +552,19 @@
         <v>0.1013698630136986</v>
       </c>
       <c r="D3" t="n">
-        <v>115210.1481585939</v>
+        <v>115162.4317729514</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03234545058775512</v>
+        <v>0.03011455478647912</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1581437064271667</v>
+        <v>0.1664106990635528</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.032291923471885</v>
+        <v>-1.401513319294426</v>
       </c>
       <c r="H3" t="n">
-        <v>9.975746728589357</v>
+        <v>13.22155647111928</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -620,19 +620,19 @@
         <v>0.273972602739726</v>
       </c>
       <c r="D5" t="n">
-        <v>116650.9358525852</v>
+        <v>116948.9686272062</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003553736704779091</v>
+        <v>0.01675859769807713</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2444123655161602</v>
+        <v>0.1821901062908523</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.883516402440664</v>
+        <v>-0.7533364570375949</v>
       </c>
       <c r="H5" t="n">
-        <v>28.18029012692069</v>
+        <v>8.277389691029969</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -688,19 +688,19 @@
         <v>0.4465753424657534</v>
       </c>
       <c r="D7" t="n">
-        <v>118639.4093783712</v>
+        <v>118625.947238204</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.002093076498806662</v>
+        <v>-0.00348448750378783</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2254318796622757</v>
+        <v>0.2317446559831317</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.8013034773494867</v>
+        <v>-0.9180057570673861</v>
       </c>
       <c r="H7" t="n">
-        <v>5.603084954572248</v>
+        <v>6.10295549526394</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.7726027397260274</v>
       </c>
       <c r="D8" t="n">
-        <v>119053.8824896641</v>
+        <v>119053.2255420037</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0257558149067628</v>
+        <v>-0.0257718284828914</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2051777390108079</v>
+        <v>0.2052184675360208</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.9709171053015833</v>
+        <v>-0.9716877234413515</v>
       </c>
       <c r="H8" t="n">
-        <v>7.069090086170934</v>
+        <v>7.072731469214665</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>0.8493150684931506</v>
       </c>
       <c r="D9" t="n">
-        <v>120567.4817895191</v>
+        <v>120569.8317311448</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.05725145900268847</v>
+        <v>-0.05735926553632831</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3233870407995719</v>
+        <v>0.3245563305064358</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.579725398156853</v>
+        <v>-1.609524609409163</v>
       </c>
       <c r="H9" t="n">
-        <v>10.20648622667981</v>
+        <v>10.48917018802919</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.098630136986301</v>
       </c>
       <c r="D10" t="n">
-        <v>122072.8636961065</v>
+        <v>122073.3437649611</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0995522961945184</v>
+        <v>-0.1001216335303524</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4338949796958877</v>
+        <v>0.4382550954376864</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.839260985739862</v>
+        <v>-1.893801721007187</v>
       </c>
       <c r="H10" t="n">
-        <v>9.165219961359403</v>
+        <v>9.623707528326589</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.345205479452055</v>
       </c>
       <c r="D11" t="n">
-        <v>124068.1275594984</v>
+        <v>124048.0995439282</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1670667866803985</v>
+        <v>-0.1760418082382996</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6874135589571067</v>
+        <v>0.7560233799149142</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.236117813309713</v>
+        <v>-2.553318547547716</v>
       </c>
       <c r="H11" t="n">
-        <v>9.641634866562871</v>
+        <v>12.26682259271791</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -900,19 +900,19 @@
         <v>0.01643835616438356</v>
       </c>
       <c r="D13" t="n">
-        <v>114465.2347196638</v>
+        <v>114499.0498290738</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07891953877553726</v>
+        <v>0.08223135338759768</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1713963966126734</v>
+        <v>0.1525343821248598</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.8540075593454</v>
+        <v>-0.7654399439376441</v>
       </c>
       <c r="H13" t="n">
-        <v>18.16724463237356</v>
+        <v>6.764653780905348</v>
       </c>
       <c r="I13" t="n">
         <v>0.03812022684306444</v>
@@ -942,19 +942,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D14" t="n">
-        <v>114341.888130357</v>
+        <v>114518.6790515398</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0508092684557172</v>
+        <v>0.07520047540406788</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4719252926916727</v>
+        <v>0.1622905046453666</v>
       </c>
       <c r="G14" t="n">
-        <v>-12.09897748671684</v>
+        <v>-0.7872352754547525</v>
       </c>
       <c r="H14" t="n">
-        <v>242.422597993331</v>
+        <v>11.27394741799627</v>
       </c>
       <c r="I14" t="n">
         <v>0.003963586090688369</v>
@@ -1020,19 +1020,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D16" t="n">
-        <v>114447.1798526438</v>
+        <v>114509.2964787599</v>
       </c>
       <c r="E16" t="n">
-        <v>0.06293128082853373</v>
+        <v>0.06858969862743376</v>
       </c>
       <c r="F16" t="n">
-        <v>0.191861521680955</v>
+        <v>0.1590006229866709</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.515500103852278</v>
+        <v>-1.010227271948733</v>
       </c>
       <c r="H16" t="n">
-        <v>25.38527621026315</v>
+        <v>10.2435996038116</v>
       </c>
       <c r="I16" t="n">
         <v>-0.000265022413729249</v>
@@ -1062,19 +1062,19 @@
         <v>0.005479452054794521</v>
       </c>
       <c r="D17" t="n">
-        <v>114402.3160786913</v>
+        <v>114435.440610379</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1413574874071107</v>
+        <v>0.1459610303108773</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1776132543518857</v>
+        <v>0.1579052838648766</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.874151719973472</v>
+        <v>-0.8365346370316579</v>
       </c>
       <c r="H17" t="n">
-        <v>18.01075058362099</v>
+        <v>5.637328271024248</v>
       </c>
       <c r="I17" t="n">
         <v>0.2098201330051036</v>
@@ -1188,19 +1188,19 @@
         <v>0.0821917808219178</v>
       </c>
       <c r="D20" t="n">
-        <v>115295.6152843482</v>
+        <v>115322.7329197569</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04288674615375797</v>
+        <v>0.04421666879072099</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1563388626731304</v>
+        <v>0.151938087846641</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.9140354285873039</v>
+        <v>-0.7790271005885648</v>
       </c>
       <c r="H20" t="n">
-        <v>8.09986522958857</v>
+        <v>7.477312722808811</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>

--- a/data_processed/20250820/BTCUSDQMOMENT_20250820.xlsx
+++ b/data_processed/20250820/BTCUSDQMOMENT_20250820.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>13.22155647111928</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.04519170855439082</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1745607282566501</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.2131940746424927</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.071038030000813</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1202,10 +1210,18 @@
       <c r="H20" t="n">
         <v>7.477312722808811</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.0535813713275675</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1832929346944241</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.1755390014415697</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.015320522030928</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250820/BTCUSDQMOMENT_20250820.xlsx
+++ b/data_processed/20250820/BTCUSDQMOMENT_20250820.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>11.53110329535999</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0.03765113525854395</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4838488370217698</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.752364869482401</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.256976923646162</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
